--- a/SharetheVision/src/main/webapp/resources/leaveSetting/sample/sampleFile.xlsx
+++ b/SharetheVision/src/main/webapp/resources/leaveSetting/sample/sampleFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIMJIEUN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIMJIEUN\git\SharetheVision\SharetheVision\src\main\webapp\resources\leaveSetting\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6DB9D2-B2C8-4BC1-B43D-EDA46E298250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EDE289-A7F5-43DF-96C4-5B07F70F2AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>사원ID</t>
   </si>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>발생연차</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력이 완료되면 CSV(쉼표로 분리) 형식으로 다른 이름으로 저장 후 업로드 해주세요</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1017,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1065,9 +1061,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
